--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Spon2</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H2">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I2">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J2">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>66.97334911525066</v>
+        <v>65.57796249787113</v>
       </c>
       <c r="R2">
-        <v>602.7601420372559</v>
+        <v>590.2016624808401</v>
       </c>
       <c r="S2">
-        <v>0.008286873704106135</v>
+        <v>0.007532941242814096</v>
       </c>
       <c r="T2">
-        <v>0.008286873704106135</v>
+        <v>0.007532941242814094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H3">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I3">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J3">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>73.63481909546934</v>
+        <v>75.97449550756446</v>
       </c>
       <c r="R3">
-        <v>662.7133718592241</v>
+        <v>683.7704595680801</v>
       </c>
       <c r="S3">
-        <v>0.009111123366681189</v>
+        <v>0.008727191099136477</v>
       </c>
       <c r="T3">
-        <v>0.009111123366681188</v>
+        <v>0.008727191099136476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H4">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I4">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J4">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>40.814470592098</v>
+        <v>57.66787386673779</v>
       </c>
       <c r="R4">
-        <v>367.330235328882</v>
+        <v>519.01086480064</v>
       </c>
       <c r="S4">
-        <v>0.005050133636211605</v>
+        <v>0.006624309278444761</v>
       </c>
       <c r="T4">
-        <v>0.005050133636211604</v>
+        <v>0.00662430927844476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H5">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I5">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J5">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>29.70276938640667</v>
+        <v>29.59818484351333</v>
       </c>
       <c r="R5">
-        <v>267.32492447766</v>
+        <v>266.38366359162</v>
       </c>
       <c r="S5">
-        <v>0.003675239506744218</v>
+        <v>0.003399943804709924</v>
       </c>
       <c r="T5">
-        <v>0.003675239506744218</v>
+        <v>0.003399943804709923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>47.284298</v>
       </c>
       <c r="I6">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J6">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>2419.837269078832</v>
+        <v>2296.452476546859</v>
       </c>
       <c r="R6">
-        <v>21778.53542170949</v>
+        <v>20668.07228892174</v>
       </c>
       <c r="S6">
-        <v>0.2994159034638913</v>
+        <v>0.2637935201677544</v>
       </c>
       <c r="T6">
-        <v>0.2994159034638912</v>
+        <v>0.2637935201677543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>47.284298</v>
       </c>
       <c r="I7">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J7">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>2660.525147734021</v>
@@ -883,10 +883,10 @@
         <v>23944.72632960619</v>
       </c>
       <c r="S7">
-        <v>0.3291971534517403</v>
+        <v>0.3056145517415288</v>
       </c>
       <c r="T7">
-        <v>0.3291971534517402</v>
+        <v>0.3056145517415288</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>47.284298</v>
       </c>
       <c r="I8">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J8">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>1474.681770602851</v>
+        <v>2019.451759617586</v>
       </c>
       <c r="R8">
-        <v>13272.13593542566</v>
+        <v>18175.06583655827</v>
       </c>
       <c r="S8">
-        <v>0.1824681272203347</v>
+        <v>0.2319744448966473</v>
       </c>
       <c r="T8">
-        <v>0.1824681272203346</v>
+        <v>0.2319744448966473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>47.284298</v>
       </c>
       <c r="I9">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J9">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>1073.201046469896</v>
+        <v>1036.488818745847</v>
       </c>
       <c r="R9">
-        <v>9658.809418229062</v>
+        <v>9328.399368712626</v>
       </c>
       <c r="S9">
-        <v>0.1327913513165703</v>
+        <v>0.1190614815258971</v>
       </c>
       <c r="T9">
-        <v>0.1327913513165703</v>
+        <v>0.1190614815258971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H10">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I10">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J10">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>76.92249002550267</v>
+        <v>131.5103177736864</v>
       </c>
       <c r="R10">
-        <v>692.302410229524</v>
+        <v>1183.592859963178</v>
       </c>
       <c r="S10">
-        <v>0.009517919713851521</v>
+        <v>0.0151065915877632</v>
       </c>
       <c r="T10">
-        <v>0.009517919713851518</v>
+        <v>0.01510659158776319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H11">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I11">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J11">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>84.57354622737735</v>
+        <v>152.3595681585818</v>
       </c>
       <c r="R11">
-        <v>761.1619160463962</v>
+        <v>1371.236113427236</v>
       </c>
       <c r="S11">
-        <v>0.01046461473934362</v>
+        <v>0.01750154519906569</v>
       </c>
       <c r="T11">
-        <v>0.01046461473934362</v>
+        <v>0.01750154519906568</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H12">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I12">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J12">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>46.87761249051701</v>
+        <v>115.6473932503431</v>
       </c>
       <c r="R12">
-        <v>421.898512414653</v>
+        <v>1040.826539253088</v>
       </c>
       <c r="S12">
-        <v>0.005800349831549391</v>
+        <v>0.01328441728069443</v>
       </c>
       <c r="T12">
-        <v>0.005800349831549389</v>
+        <v>0.01328441728069442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9026056666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.707817</v>
+      </c>
+      <c r="I13">
+        <v>0.05271081546417152</v>
+      </c>
+      <c r="J13">
+        <v>0.05271081546417151</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>65.761079</v>
+      </c>
+      <c r="N13">
+        <v>197.283237</v>
+      </c>
+      <c r="O13">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="P13">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="Q13">
+        <v>59.35632255151432</v>
+      </c>
+      <c r="R13">
+        <v>534.206902963629</v>
+      </c>
+      <c r="S13">
+        <v>0.006818261396648211</v>
+      </c>
+      <c r="T13">
+        <v>0.006818261396648208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5010290000000001</v>
-      </c>
-      <c r="H13">
-        <v>1.503087</v>
-      </c>
-      <c r="I13">
-        <v>0.0300040943337204</v>
-      </c>
-      <c r="J13">
-        <v>0.0300040943337204</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>68.09032333333334</v>
-      </c>
-      <c r="N13">
-        <v>204.27097</v>
-      </c>
-      <c r="O13">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="P13">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="Q13">
-        <v>34.11522660937668</v>
-      </c>
-      <c r="R13">
-        <v>307.03703948439</v>
-      </c>
-      <c r="S13">
-        <v>0.004221210048975873</v>
-      </c>
-      <c r="T13">
-        <v>0.004221210048975872</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.009603</v>
+      </c>
+      <c r="H14">
+        <v>0.028809</v>
+      </c>
+      <c r="I14">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J14">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>145.7007446666667</v>
+      </c>
+      <c r="N14">
+        <v>437.1022340000001</v>
+      </c>
+      <c r="O14">
+        <v>0.2865937750105843</v>
+      </c>
+      <c r="P14">
+        <v>0.2865937750105843</v>
+      </c>
+      <c r="Q14">
+        <v>1.399164251034</v>
+      </c>
+      <c r="R14">
+        <v>12.592478259306</v>
+      </c>
+      <c r="S14">
+        <v>0.0001607220122526264</v>
+      </c>
+      <c r="T14">
+        <v>0.0001607220122526263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.009603</v>
+      </c>
+      <c r="H15">
+        <v>0.028809</v>
+      </c>
+      <c r="I15">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J15">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N15">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3320294904365841</v>
+      </c>
+      <c r="P15">
+        <v>0.3320294904365841</v>
+      </c>
+      <c r="Q15">
+        <v>1.620983544708</v>
+      </c>
+      <c r="R15">
+        <v>14.588851902372</v>
+      </c>
+      <c r="S15">
+        <v>0.0001862023968532155</v>
+      </c>
+      <c r="T15">
+        <v>0.0001862023968532155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.009603</v>
+      </c>
+      <c r="H16">
+        <v>0.028809</v>
+      </c>
+      <c r="I16">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J16">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>128.1261546666667</v>
+      </c>
+      <c r="N16">
+        <v>384.378464</v>
+      </c>
+      <c r="O16">
+        <v>0.2520245069956105</v>
+      </c>
+      <c r="P16">
+        <v>0.2520245069956105</v>
+      </c>
+      <c r="Q16">
+        <v>1.230395463264</v>
+      </c>
+      <c r="R16">
+        <v>11.073559169376</v>
+      </c>
+      <c r="S16">
+        <v>0.000141335539823971</v>
+      </c>
+      <c r="T16">
+        <v>0.000141335539823971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.009603</v>
+      </c>
+      <c r="H17">
+        <v>0.028809</v>
+      </c>
+      <c r="I17">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J17">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>65.761079</v>
+      </c>
+      <c r="N17">
+        <v>197.283237</v>
+      </c>
+      <c r="O17">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="P17">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="Q17">
+        <v>0.631503641637</v>
+      </c>
+      <c r="R17">
+        <v>5.683532774733</v>
+      </c>
+      <c r="S17">
+        <v>7.25408299659978E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.254082996599779E-05</v>
       </c>
     </row>
   </sheetData>
